--- a/src/main/resources/static/assets/files/TopPOS_PriceUpload.xlsx
+++ b/src/main/resources/static/assets/files/TopPOS_PriceUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broadwave/Downloads/NAVERWORKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECDE028F-A84F-CA47-953A-B2FE17119D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF6EEC1-08EF-DD42-807E-1BCE1BF18B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,13 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>추가요금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명품여부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -498,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69626299-6C24-48C6-B874-CE1E4F9E5538}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M9" sqref="A2:M9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -509,34 +505,33 @@
     <col min="1" max="2" width="10.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="14.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="44.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -552,1052 +547,984 @@
         <v>5</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="6"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="6"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="6"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="11"/>
       <c r="D10" s="17"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="6"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="6"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="6"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="6"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
       <c r="E16" s="6"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
       <c r="E18" s="6"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="11"/>
       <c r="D20" s="9"/>
       <c r="E20" s="6"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="11"/>
       <c r="D21" s="9"/>
       <c r="E21" s="6"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="11"/>
       <c r="D23" s="9"/>
       <c r="E23" s="6"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
       <c r="D24" s="9"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
       <c r="E28" s="6"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
       <c r="E29" s="6"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
       <c r="E30" s="6"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
       <c r="E31" s="6"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="15"/>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="15"/>
       <c r="E33" s="6"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="15"/>
       <c r="E34" s="6"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="15"/>
       <c r="E35" s="6"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="15"/>
       <c r="E36" s="6"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="15"/>
       <c r="E37" s="6"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="15"/>
       <c r="E38" s="6"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="15"/>
       <c r="E39" s="6"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="15"/>
       <c r="E40" s="6"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="15"/>
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="15"/>
       <c r="E42" s="6"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="15"/>
       <c r="E43" s="6"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="15"/>
       <c r="E44" s="6"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="7"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="15"/>
       <c r="E45" s="6"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="15"/>
       <c r="E46" s="6"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="15"/>
       <c r="E47" s="6"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="6"/>
       <c r="F48" s="14"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="6"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="6"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="6"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="6"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="1:14">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="6"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="6"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:14">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
+      <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="1:14">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="6"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="6"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="1:14">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
+      <c r="L60" s="6"/>
       <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-    </row>
-    <row r="61" spans="1:14">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
+      <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
+      <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-    </row>
-    <row r="63" spans="1:14">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
+      <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-    </row>
-    <row r="64" spans="1:14">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
+      <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-    </row>
-    <row r="65" spans="1:14">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
+      <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
+      <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
